--- a/data/trans_dic/P36$huevo-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P36$huevo-Dificultad-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.009725141093674278</v>
+        <v>0.009754613577650235</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01952675619261985</v>
+        <v>0.01880387859507565</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03431814261449125</v>
+        <v>0.03466329473919447</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01262547180020685</v>
+        <v>0.01204653868735578</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01099896637263171</v>
+        <v>0.01146367443205555</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02827644550403881</v>
+        <v>0.02948599758413685</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01340047964608088</v>
+        <v>0.01379498567508013</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0166407203261504</v>
+        <v>0.01678052349870967</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03516138391899785</v>
+        <v>0.03487807101438248</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03313848475755357</v>
+        <v>0.0355093196226952</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04059136659135371</v>
+        <v>0.04029549591083691</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05939507656651605</v>
+        <v>0.06110554443274346</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03248540897882583</v>
+        <v>0.03111163750714696</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02705153669756402</v>
+        <v>0.02804345391622672</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05154992821105948</v>
+        <v>0.05224005695154667</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02922619610511663</v>
+        <v>0.02807961859880018</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03010196821474248</v>
+        <v>0.02980288672610026</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.051479659633381</v>
+        <v>0.05141885153030243</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0278303045489308</v>
+        <v>0.02751529780005254</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03135508523899908</v>
+        <v>0.03194120952140523</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05001022529260932</v>
+        <v>0.04902850308246567</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01526972346626079</v>
+        <v>0.01577217470785994</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01663125231431245</v>
+        <v>0.01656897183694545</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03969644879077845</v>
+        <v>0.0398470920450955</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02444695226856223</v>
+        <v>0.02387126288559295</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02633070904859127</v>
+        <v>0.02666102560429331</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04902517522375741</v>
+        <v>0.0485343528852865</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05257916129067877</v>
+        <v>0.05241553480176162</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05703267546169873</v>
+        <v>0.057466015219264</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.08298887355678564</v>
+        <v>0.08255625448682652</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03468889846660989</v>
+        <v>0.03571525973543144</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03604036828054862</v>
+        <v>0.0358898745021501</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.07015978779472702</v>
+        <v>0.06842360149010263</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04035236028457115</v>
+        <v>0.03940704119072153</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04158344099125344</v>
+        <v>0.04289250569023917</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.07065064251740541</v>
+        <v>0.07109884849961248</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02908470712273373</v>
+        <v>0.02908993313090978</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03513961784281838</v>
+        <v>0.03626284992240382</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08140538104572534</v>
+        <v>0.08124657460907092</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01196639385133952</v>
+        <v>0.01222640891463378</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01249887188416055</v>
+        <v>0.01288768961833616</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07808255165490167</v>
+        <v>0.07618302236221731</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02344207981158897</v>
+        <v>0.0236911544037515</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02708485117797973</v>
+        <v>0.02716510898155158</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.08458321922757463</v>
+        <v>0.08439730480416102</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05288278272778764</v>
+        <v>0.05215398084225046</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06347660569713509</v>
+        <v>0.06459503128847523</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1226426890173216</v>
+        <v>0.1241443132430985</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03069405514641123</v>
+        <v>0.03115911064627184</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03433297632462489</v>
+        <v>0.0353095593624878</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1209362595876149</v>
+        <v>0.1214258453865082</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03941470724881482</v>
+        <v>0.03919966503704778</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.04514164613316119</v>
+        <v>0.04591373366637115</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.116235102506918</v>
+        <v>0.1139519862736005</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02261344800807251</v>
+        <v>0.02315002553875718</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04095907593040159</v>
+        <v>0.0405816680691741</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07295643120730096</v>
+        <v>0.07373937776777191</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0089822391653463</v>
+        <v>0.007907818798932063</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02086357339891433</v>
+        <v>0.02004741832727434</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04797025616005819</v>
+        <v>0.04742577885415963</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01974146636566236</v>
+        <v>0.02006454096458901</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03526920002454883</v>
+        <v>0.03617093644727286</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06773707956387801</v>
+        <v>0.0672971306686686</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06483602017755789</v>
+        <v>0.06310897294946811</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08405737105140022</v>
+        <v>0.08283091175274496</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1297645200082863</v>
+        <v>0.1268676411773407</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04268400658215916</v>
+        <v>0.03908598769642485</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.0589966736255786</v>
+        <v>0.05958287165913585</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0933117304240953</v>
+        <v>0.09301322437386671</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.04658331761212112</v>
+        <v>0.04538760759971925</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.06571356686741962</v>
+        <v>0.06574143969893557</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1016273060920351</v>
+        <v>0.1050248820255241</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.028972848984567</v>
+        <v>0.02911666254207747</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03547019748761369</v>
+        <v>0.03553783591781735</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.06409047099797385</v>
+        <v>0.06452632735005302</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01684618324462999</v>
+        <v>0.01662701490851668</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01819834704509108</v>
+        <v>0.01810318760641852</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05235776277676479</v>
+        <v>0.05251745886620867</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02442176996027749</v>
+        <v>0.02450003644265713</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02821605876779185</v>
+        <v>0.02847461365334663</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.06059949906209063</v>
+        <v>0.05992030057730542</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04320203351893589</v>
+        <v>0.04255110716757982</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04944407705751324</v>
+        <v>0.04947607026888898</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08114495302806782</v>
+        <v>0.08251558644006649</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02692034781750234</v>
+        <v>0.02691933990006339</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.02941470941210004</v>
+        <v>0.02904324470989917</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.06892011565994276</v>
+        <v>0.0695051373284138</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.03306896935100979</v>
+        <v>0.03300169854554767</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.0372375592745956</v>
+        <v>0.03709062860949716</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.07220839826640207</v>
+        <v>0.07227570941717043</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5681</v>
+        <v>5698</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>20326</v>
+        <v>19574</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>38674</v>
+        <v>39063</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>11645</v>
+        <v>11111</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>12285</v>
+        <v>12804</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>35616</v>
+        <v>37139</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>20187</v>
+        <v>20782</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>35909</v>
+        <v>36210</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>83912</v>
+        <v>83236</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>19358</v>
+        <v>20742</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>42253</v>
+        <v>41945</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>66933</v>
+        <v>68861</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>29962</v>
+        <v>28695</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>30215</v>
+        <v>31322</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>64930</v>
+        <v>65800</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>44029</v>
+        <v>42301</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>64956</v>
+        <v>64311</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>122855</v>
+        <v>122710</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>29912</v>
+        <v>29574</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>30577</v>
+        <v>31149</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>45351</v>
+        <v>44461</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>16119</v>
+        <v>16649</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>18199</v>
+        <v>18131</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>39869</v>
+        <v>40020</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>52082</v>
+        <v>50855</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>54490</v>
+        <v>55174</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>93695</v>
+        <v>92757</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>56513</v>
+        <v>56337</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>55618</v>
+        <v>56041</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>75257</v>
+        <v>74864</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>36617</v>
+        <v>37701</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>39438</v>
+        <v>39273</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>70464</v>
+        <v>68720</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>85967</v>
+        <v>83953</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>86055</v>
+        <v>88764</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>135025</v>
+        <v>135882</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>32541</v>
+        <v>32547</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>31103</v>
+        <v>32097</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>66986</v>
+        <v>66855</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>11881</v>
+        <v>12139</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>10932</v>
+        <v>11272</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>60206</v>
+        <v>58742</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>49503</v>
+        <v>50029</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>47663</v>
+        <v>47804</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>134819</v>
+        <v>134523</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>59167</v>
+        <v>58352</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>56184</v>
+        <v>57174</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>100919</v>
+        <v>102154</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>30475</v>
+        <v>30937</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>30029</v>
+        <v>30883</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>93249</v>
+        <v>93626</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>83232</v>
+        <v>82778</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>79438</v>
+        <v>80797</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>185270</v>
+        <v>181631</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>10092</v>
+        <v>10332</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>20561</v>
+        <v>20371</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>36967</v>
+        <v>37364</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3064</v>
+        <v>2698</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>9405</v>
+        <v>9037</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>23438</v>
+        <v>23172</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>15546</v>
+        <v>15800</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>33603</v>
+        <v>34462</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>67418</v>
+        <v>66980</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>28936</v>
+        <v>28166</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>42195</v>
+        <v>41580</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>65752</v>
+        <v>64284</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>14562</v>
+        <v>13334</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>26594</v>
+        <v>26858</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>45591</v>
+        <v>45445</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>36682</v>
+        <v>35741</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>62609</v>
+        <v>62636</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>101148</v>
+        <v>104530</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>93411</v>
+        <v>93875</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>120714</v>
+        <v>120944</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>215556</v>
+        <v>217022</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>55794</v>
+        <v>55068</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>64360</v>
+        <v>64024</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>184485</v>
+        <v>185047</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>159622</v>
+        <v>160133</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>195815</v>
+        <v>197609</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>417340</v>
+        <v>412662</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>139288</v>
+        <v>137189</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>168270</v>
+        <v>168379</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>272916</v>
+        <v>277526</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>89159</v>
+        <v>89155</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>104028</v>
+        <v>102714</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>242843</v>
+        <v>244904</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>216140</v>
+        <v>215701</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>258423</v>
+        <v>257403</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>497289</v>
+        <v>497752</v>
       </c>
     </row>
     <row r="24">
